--- a/GenerateApp/tables/Data/5/source.xlsx
+++ b/GenerateApp/tables/Data/5/source.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="4"/>
+  <style val="8"/>
   <chart>
     <title>
       <tx>
@@ -96,12 +96,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$1:$A$10</f>
+              <f>'Sheet1'!$A$1:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$10</f>
+              <f>'Sheet1'!$B$1:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,82 +497,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="B1" t="n">
-        <v>671</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B2" t="n">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="B3" t="n">
-        <v>463</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B4" t="n">
-        <v>597</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="B5" t="n">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B6" t="n">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B7" t="n">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B8" t="n">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B9" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B10" t="n">
-        <v>399</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
